--- a/public/reportes/reporte_caracterizacion_concejo.xlsx
+++ b/public/reportes/reporte_caracterizacion_concejo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>MACROPROCESO: AGENCIA NACIONAL DE TIERRAS 
 PROCESO: DIRECCIÓN DE ASUNTOS ÉTNICOS</t>
@@ -40,7 +40,7 @@
     <t>2. Municipio: EL PASO</t>
   </si>
   <si>
-    <t>3. Consejo Comunitario:   CONCEJO COMUNITARIO "JULIO CESAR ALTAMAR MUÑOS"</t>
+    <t>3. Consejo Comunitario:   CONCEJO COMUNITARIO "ALEJO DURAN"</t>
   </si>
   <si>
     <t>4. Fecha: 14 de Noviembre del 2023</t>
@@ -49,7 +49,7 @@
     <t>5. Representante Legal: EUFROSINA VEGA MIELES</t>
   </si>
   <si>
-    <t>6. Consejo Comunitario: CONCEJO COMUNITARIO "JULIO CESAR ALTAMAR MUÑOS"</t>
+    <t>6. Consejo Comunitario: CONCEJO COMUNITARIO "ALEJO DURAN"</t>
   </si>
   <si>
     <t>Listado de Personas</t>
@@ -119,130 +119,127 @@
     <t>Area Utilizada</t>
   </si>
   <si>
-    <t>Daniela Quintero</t>
+    <t>Fabian Andres Quintero Mendez</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>manzana 2 casa 8 - Fundadores</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>22 Años</t>
+  </si>
+  <si>
+    <t>Unión Libre</t>
+  </si>
+  <si>
+    <t>Jefe de hogar</t>
+  </si>
+  <si>
+    <t>Desempleado Buscando empleo</t>
+  </si>
+  <si>
+    <t>Analfabeta</t>
+  </si>
+  <si>
+    <t>Parcela</t>
+  </si>
+  <si>
+    <t>Propia</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Juan Camilo Quiñones</t>
   </si>
   <si>
     <t>TI</t>
   </si>
   <si>
-    <t>manzana 12 casa 18 - Primero de mayo</t>
+    <t>17 Años</t>
+  </si>
+  <si>
+    <t>Soltero</t>
+  </si>
+  <si>
+    <t>Hijastro(a)</t>
+  </si>
+  <si>
+    <t>Estudiante</t>
+  </si>
+  <si>
+    <t>Cursando primaria</t>
+  </si>
+  <si>
+    <t>Obdulio Josefino Gaviria</t>
+  </si>
+  <si>
+    <t>transversal 28a #45-87</t>
+  </si>
+  <si>
+    <t>58 Años</t>
+  </si>
+  <si>
+    <t>Viudo(a)</t>
+  </si>
+  <si>
+    <t>Agricultor cultivador</t>
+  </si>
+  <si>
+    <t>Sin estudios</t>
+  </si>
+  <si>
+    <t>Finca</t>
+  </si>
+  <si>
+    <t>Andres gaviria</t>
+  </si>
+  <si>
+    <t>3 Años</t>
+  </si>
+  <si>
+    <t>Hijo(a)</t>
+  </si>
+  <si>
+    <t>Desempleado Sin Busqueda de Empleo</t>
+  </si>
+  <si>
+    <t>Cursando Bachillerato</t>
+  </si>
+  <si>
+    <t>Andrea Madrid</t>
+  </si>
+  <si>
+    <t>calle principal - casa 4</t>
   </si>
   <si>
     <t>Femenino</t>
   </si>
   <si>
-    <t>18 Años</t>
-  </si>
-  <si>
-    <t>Soltero</t>
-  </si>
-  <si>
-    <t>Jefe de hogar</t>
-  </si>
-  <si>
-    <t>Desempleado Sin Busqueda de Empleo</t>
-  </si>
-  <si>
-    <t>Universitario incompleto</t>
-  </si>
-  <si>
-    <t>Finca</t>
-  </si>
-  <si>
-    <t>Propia</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>Juana Gaviria</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>transversal 28a #45-87</t>
-  </si>
-  <si>
-    <t>38 Años</t>
-  </si>
-  <si>
-    <t>Divorciado</t>
-  </si>
-  <si>
-    <t>Hermano(a)</t>
-  </si>
-  <si>
-    <t>Cocinero de restaurante</t>
-  </si>
-  <si>
-    <t>sin estudios</t>
-  </si>
-  <si>
-    <t>Miguel Ángel López</t>
-  </si>
-  <si>
-    <t>calle 34 #12-13</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>45 Años</t>
-  </si>
-  <si>
-    <t>Ingeniero agrícola</t>
+    <t>36 Años</t>
+  </si>
+  <si>
+    <t>Ayudante de cocina no domestica</t>
+  </si>
+  <si>
+    <t>Bachillerato completo</t>
   </si>
   <si>
     <t>Casa</t>
   </si>
   <si>
+    <t>Alquilada</t>
+  </si>
+  <si>
     <t>N.A</t>
-  </si>
-  <si>
-    <t>Abuela Miguel Angel</t>
-  </si>
-  <si>
-    <t>83 Años</t>
-  </si>
-  <si>
-    <t>Viudo(a)</t>
-  </si>
-  <si>
-    <t>Abuelo(a)</t>
-  </si>
-  <si>
-    <t>NO APLICA</t>
-  </si>
-  <si>
-    <t>analfabeta</t>
-  </si>
-  <si>
-    <t>Juana de arcos</t>
-  </si>
-  <si>
-    <t>manzana 2 casa 8 - Fundadores</t>
-  </si>
-  <si>
-    <t>20 Años</t>
-  </si>
-  <si>
-    <t>Yerno(a)</t>
-  </si>
-  <si>
-    <t>Modisto</t>
-  </si>
-  <si>
-    <t>bachillerato completo</t>
-  </si>
-  <si>
-    <t>Juan Jole Lopez</t>
-  </si>
-  <si>
-    <t>2 Años</t>
-  </si>
-  <si>
-    <t>Nieto(a)</t>
   </si>
 </sst>
 </file>
@@ -689,20 +686,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" bestFit="true" style="0"/>
     <col min="2" max="2" width="9.10" bestFit="true" style="0"/>
-    <col min="3" max="3" width="23.137" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="33.992" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="7.284" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.853" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="41.561" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="33.992" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="12.568" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="10.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="15.853" bestFit="true" customWidth="true" style="0"/>
@@ -710,7 +707,7 @@
     <col min="11" max="11" width="20" customWidth="true" style="0"/>
     <col min="12" max="12" width="25" customWidth="true" style="0"/>
     <col min="13" max="13" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="12.568" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="12.568" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.283" bestFit="true" customWidth="true" style="0"/>
@@ -948,7 +945,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="10">
-        <v>43423423423.0</v>
+        <v>134543433.0</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>34</v>
@@ -981,34 +978,34 @@
         <v>43</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="1">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="R8" s="1">
-        <v>5.0</v>
+        <v>1.5</v>
       </c>
       <c r="S8" s="1">
-        <v>47000.0</v>
+        <v>11000.0</v>
       </c>
     </row>
     <row r="9" spans="1:26" customHeight="1" ht="30">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="10">
-        <v>4234234234.0</v>
+        <v>23123123123.0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>35</v>
@@ -1038,29 +1035,29 @@
     </row>
     <row r="10" spans="1:26" customHeight="1" ht="30">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E10" s="10">
-        <v>213412321321.0</v>
+        <v>10090908978.0</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>38</v>
@@ -1069,43 +1066,43 @@
         <v>56</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>200000</v>
+      </c>
+      <c r="R10" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>70000.0</v>
       </c>
     </row>
     <row r="11" spans="1:26" customHeight="1" ht="30">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="10">
-        <v>42324234234.0</v>
+        <v>100212124.0</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>53</v>
@@ -1117,16 +1114,16 @@
         <v>60</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1138,89 +1135,60 @@
     </row>
     <row r="12" spans="1:26" customHeight="1" ht="30">
       <c r="A12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="10">
+        <v>967897897.0</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="10">
-        <v>7547546546.0</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" customHeight="1" ht="30">
-      <c r="A13" s="1">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
+      <c r="N12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="10">
-        <v>432423423.0</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -1247,7 +1215,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/reportes/reporte_caracterizacion_concejo.xlsx
+++ b/public/reportes/reporte_caracterizacion_concejo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>MACROPROCESO: AGENCIA NACIONAL DE TIERRAS 
 PROCESO: DIRECCIÓN DE ASUNTOS ÉTNICOS</t>
@@ -40,7 +40,7 @@
     <t>2. Municipio: EL PASO</t>
   </si>
   <si>
-    <t>3. Consejo Comunitario:   CONCEJO COMUNITARIO "ALEJO DURAN"</t>
+    <t>3. Consejo Comunitario:   CONCEJO COMUNITARIO "JULIO CESAR ALTAMAR MUÑOS"</t>
   </si>
   <si>
     <t>4. Fecha: 14 de Noviembre del 2023</t>
@@ -49,7 +49,7 @@
     <t>5. Representante Legal: EUFROSINA VEGA MIELES</t>
   </si>
   <si>
-    <t>6. Consejo Comunitario: CONCEJO COMUNITARIO "ALEJO DURAN"</t>
+    <t>6. Consejo Comunitario: CONCEJO COMUNITARIO "JULIO CESAR ALTAMAR MUÑOS"</t>
   </si>
   <si>
     <t>Listado de Personas</t>
@@ -119,127 +119,148 @@
     <t>Area Utilizada</t>
   </si>
   <si>
-    <t>Fabian Andres Quintero Mendez</t>
+    <t>Daniela Quintero</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>manzana 12 casa 18 - Primero de mayo</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>18 Años</t>
+  </si>
+  <si>
+    <t>Soltero</t>
+  </si>
+  <si>
+    <t>Jefe de hogar</t>
+  </si>
+  <si>
+    <t>Desempleado Sin Busqueda de Empleo</t>
+  </si>
+  <si>
+    <t>Universitario incompleto</t>
+  </si>
+  <si>
+    <t>Finca</t>
+  </si>
+  <si>
+    <t>Propia</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Juana Gaviria</t>
   </si>
   <si>
     <t>CC</t>
   </si>
   <si>
+    <t>transversal 28a #45-87</t>
+  </si>
+  <si>
+    <t>38 Años</t>
+  </si>
+  <si>
+    <t>Divorciado</t>
+  </si>
+  <si>
+    <t>Hermano(a)</t>
+  </si>
+  <si>
+    <t>Cocinero de restaurante</t>
+  </si>
+  <si>
+    <t>Sin estudios</t>
+  </si>
+  <si>
+    <t>Miguel Ángel López</t>
+  </si>
+  <si>
+    <t>calle 34 #12-13</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>45 Años</t>
+  </si>
+  <si>
+    <t>Ingeniero agrícola</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
+  <si>
+    <t>N.A</t>
+  </si>
+  <si>
+    <t>Abuela Miguel Angel</t>
+  </si>
+  <si>
+    <t>83 Años</t>
+  </si>
+  <si>
+    <t>Viudo(a)</t>
+  </si>
+  <si>
+    <t>Abuelo(a)</t>
+  </si>
+  <si>
+    <t>NO APLICA</t>
+  </si>
+  <si>
+    <t>Analfabeta</t>
+  </si>
+  <si>
+    <t>Juana de arcos</t>
+  </si>
+  <si>
     <t>manzana 2 casa 8 - Fundadores</t>
   </si>
   <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>22 Años</t>
-  </si>
-  <si>
-    <t>Unión Libre</t>
-  </si>
-  <si>
-    <t>Jefe de hogar</t>
-  </si>
-  <si>
-    <t>Desempleado Buscando empleo</t>
-  </si>
-  <si>
-    <t>Analfabeta</t>
-  </si>
-  <si>
-    <t>Parcela</t>
-  </si>
-  <si>
-    <t>Propia</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Juan Camilo Quiñones</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>17 Años</t>
-  </si>
-  <si>
-    <t>Soltero</t>
-  </si>
-  <si>
-    <t>Hijastro(a)</t>
-  </si>
-  <si>
-    <t>Estudiante</t>
-  </si>
-  <si>
-    <t>Cursando primaria</t>
-  </si>
-  <si>
-    <t>Obdulio Josefino Gaviria</t>
-  </si>
-  <si>
-    <t>transversal 28a #45-87</t>
-  </si>
-  <si>
-    <t>58 Años</t>
-  </si>
-  <si>
-    <t>Viudo(a)</t>
-  </si>
-  <si>
-    <t>Agricultor cultivador</t>
-  </si>
-  <si>
-    <t>Sin estudios</t>
-  </si>
-  <si>
-    <t>Finca</t>
-  </si>
-  <si>
-    <t>Andres gaviria</t>
-  </si>
-  <si>
-    <t>3 Años</t>
+    <t>20 Años</t>
+  </si>
+  <si>
+    <t>Yerno(a)</t>
+  </si>
+  <si>
+    <t>Modisto</t>
+  </si>
+  <si>
+    <t>Bachillerato completo</t>
+  </si>
+  <si>
+    <t>Juan Jole Lopez</t>
+  </si>
+  <si>
+    <t>2 Años</t>
+  </si>
+  <si>
+    <t>Nieto(a)</t>
+  </si>
+  <si>
+    <t>Andres Jose Madrid Madrid</t>
+  </si>
+  <si>
+    <t>Registro Civil</t>
+  </si>
+  <si>
+    <t>calle principal - casa 4</t>
+  </si>
+  <si>
+    <t>5 Años</t>
   </si>
   <si>
     <t>Hijo(a)</t>
   </si>
   <si>
-    <t>Desempleado Sin Busqueda de Empleo</t>
-  </si>
-  <si>
-    <t>Cursando Bachillerato</t>
-  </si>
-  <si>
-    <t>Andrea Madrid</t>
-  </si>
-  <si>
-    <t>calle principal - casa 4</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
-    <t>36 Años</t>
-  </si>
-  <si>
-    <t>Ayudante de cocina no domestica</t>
-  </si>
-  <si>
-    <t>Bachillerato completo</t>
-  </si>
-  <si>
-    <t>Casa</t>
-  </si>
-  <si>
-    <t>Alquilada</t>
-  </si>
-  <si>
-    <t>N.A</t>
+    <t>No Aplica</t>
   </si>
 </sst>
 </file>
@@ -686,20 +707,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" bestFit="true" style="0"/>
     <col min="2" max="2" width="9.10" bestFit="true" style="0"/>
-    <col min="3" max="3" width="33.992" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="7.284" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="29.707" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="17.853" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.853" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="33.992" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="41.561" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="12.568" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="10.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="15.853" bestFit="true" customWidth="true" style="0"/>
@@ -707,7 +728,7 @@
     <col min="11" max="11" width="20" customWidth="true" style="0"/>
     <col min="12" max="12" width="25" customWidth="true" style="0"/>
     <col min="13" max="13" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="12.568" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.283" bestFit="true" customWidth="true" style="0"/>
@@ -945,7 +966,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="10">
-        <v>134543433.0</v>
+        <v>43423423423.0</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>34</v>
@@ -978,34 +999,34 @@
         <v>43</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="1">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="R8" s="1">
-        <v>1.5</v>
+        <v>5.0</v>
       </c>
       <c r="S8" s="1">
-        <v>11000.0</v>
+        <v>47000.0</v>
       </c>
     </row>
     <row r="9" spans="1:26" customHeight="1" ht="30">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="10">
+        <v>4234234234.0</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E9" s="10">
-        <v>23123123123.0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>35</v>
@@ -1035,29 +1056,29 @@
     </row>
     <row r="10" spans="1:26" customHeight="1" ht="30">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E10" s="10">
-        <v>10090908978.0</v>
+        <v>213412321321.0</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>38</v>
@@ -1066,43 +1087,43 @@
         <v>56</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>200000</v>
-      </c>
-      <c r="R10" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="S10" s="1">
-        <v>70000.0</v>
+        <v>58</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:26" customHeight="1" ht="30">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="10">
-        <v>100212124.0</v>
+        <v>42324234234.0</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>53</v>
@@ -1114,16 +1135,16 @@
         <v>60</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1135,60 +1156,132 @@
     </row>
     <row r="12" spans="1:26" customHeight="1" ht="30">
       <c r="A12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E12" s="10">
-        <v>967897897.0</v>
+        <v>7547546546.0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" customHeight="1" ht="30">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="10">
+        <v>432423423.0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="I13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" customHeight="1" ht="30">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="10">
+        <v>523423454.0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1215,6 +1308,8 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
